--- a/biology/Médecine/Rosa_María_Britton/Rosa_María_Britton.xlsx
+++ b/biology/Médecine/Rosa_María_Britton/Rosa_María_Britton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_Mar%C3%ADa_Britton</t>
+          <t>Rosa_María_Britton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa María Crespo Justiniani de Britton, née à Panama le 28 juillet 1936 et morte le 16 juillet 2019[1], est une romancière et obstétricienne panaméenne. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa María Crespo Justiniani de Britton, née à Panama le 28 juillet 1936 et morte le 16 juillet 2019, est une romancière et obstétricienne panaméenne. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_Mar%C3%ADa_Britton</t>
+          <t>Rosa_María_Britton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père était cubain et sa mère était panaméenne. Elle a fait ses études à Panama et ses études secondaires à La Havane, à Cuba. 
 Elle étudie la médecine à Madrid et New York. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_Mar%C3%ADa_Britton</t>
+          <t>Rosa_María_Britton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 El ataúd de uso, 1982, Panama.
 El Señor de las lluvias y el viento, 1984, Panama.
 No pertenezco a este siglo 1991, Panama.
 Todas íbamos a ser reinas, 1997, Colombie.
 Laberintos de orgullo, 2002, Costa Rica.
 Suspiros de fantasmas, 2005, Costa Rica.
-Contes et nouvelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rosa_María_Britton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa_Mar%C3%ADa_Britton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contes et nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 ¿Quién inventó el mambo? , 1985, Panama.
 La muerte tiene dos caras, 1987, Costa Rica.
 Semana de la mujer y otras calamidades, 1995, Espagne.
@@ -564,31 +620,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rosa_Mar%C3%ADa_Britton</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rosa_María_Britton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rosa_Mar%C3%ADa_Britton</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix Ricardo Miró
 1982 (roman) : El ataúd de uso
